--- a/src/test/java/com/SdaMentoring/Assignments/day07/Product Backlog Contact List.xlsx
+++ b/src/test/java/com/SdaMentoring/Assignments/day07/Product Backlog Contact List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54148212-3515-4098-9E06-99C2D8DDF92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE81EE0C-43C2-4E94-A882-9E0B962C3457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="150">
   <si>
     <t>Usert_Story_ID</t>
   </si>
@@ -263,9 +263,6 @@
     <t>TC_010</t>
   </si>
   <si>
-    <t>verify invalid password</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
   </si>
   <si>
     <t>verify email is empty</t>
-  </si>
-  <si>
-    <t>verify firstname is  empty</t>
   </si>
   <si>
     <t>verify lastname is empty</t>
@@ -318,9 +312,6 @@
   <si>
     <t>1. Enter "Jo*n1" in the First Name field                         2.Enter "Doe" in the second name field                                                                                                   3. Enter "john4@gmail.com" in third field                                                                                                 4. Enter "JohnD*1234" passowrd
 5. Click on submit button</t>
-  </si>
-  <si>
-    <t>"Jo*n1","Doe","john4@gmail.com","JohnD*1234"</t>
   </si>
   <si>
     <t>"","Doe","john4@gmail.com","JohnD*1234"</t>
@@ -331,9 +322,6 @@
 5. Click on submit button</t>
   </si>
   <si>
-    <t xml:space="preserve">    "John","Do$1","john4@gmail.com","JohnD*1234"</t>
-  </si>
-  <si>
     <t>1. Enter "Jo*n1" in the First Name field                         1. Enter "Do$1" in the Second Name field                                                                                                   3. Enter "john4@gmail.com" in third field                                                                                                 4. Enter "JohnD*1234" passowrd
 5. Click on submit button</t>
   </si>
@@ -412,6 +400,91 @@
   </si>
   <si>
     <t>`password` is required.</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>verify invalid password(less than 8)</t>
+  </si>
+  <si>
+    <t>verify invalid password(numbers only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "John", "Doe","john4@gmail.com","12345678"</t>
+  </si>
+  <si>
+    <t>System should display error message that the password should contains chars,symbols and numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter "John" in the first name field                                                                                            2.Enter "Doe" in the second name field                                                                                                   3. Enter "john4@gmail.com" in third field                                                                                                 4. Enter incorrect password (num) 12345678
+5. Click on submit button                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter "John" in the first name field                                                                                            2.Enter "Doe" in the second name field                                                                                                   3. Enter "john4@gmail.com" in third field                                                                                                 4. Enter incorrect password (symbols) *$*$*$*$
+5. Click on submit button                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "John", "Doe","john4@gmail.com","*$*$*$*$"</t>
+  </si>
+  <si>
+    <t>verify invalid password(symbols only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter "John" in the first name field                                                                                            2.Enter "Doe" in the second name field                                                                                                   3. Enter "john4@gmail.com" in third field                                                                                                 4. Enter incorrect password (letters) JohnDoej
+5. Click on submit button                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "John", "Doe","john4@gmail.com","JohnDoej"</t>
+  </si>
+  <si>
+    <t>verify invalid password(letters only)</t>
+  </si>
+  <si>
+    <t>verify firstname is empty</t>
+  </si>
+  <si>
+    <t>"J123*","Doe","john4@gmail.com","JohnD*1234"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "John","Do$12","john4@gmail.com","JohnD*1234"</t>
+  </si>
+  <si>
+    <t>verify all fields are not empty</t>
+  </si>
+  <si>
+    <t>User validation failed: firstName: Path `firstName` is required., lastName: Path `lastName` is required., email: Email is invalid, password: Path `password` is required.</t>
+  </si>
+  <si>
+    <t>"","","",""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter "" in the first name field                                                                                            2.Enter "" in the second name field                                                                                                    3. Enter "" in third field                                               4. Enter "" password                                                  5. Click on submit button                                                      </t>
+  </si>
+  <si>
+    <t>verify first two fields are not empty and invaild email format</t>
+  </si>
+  <si>
+    <t>User validation failed: firstName: Path `firstName` is required., lastName: Path `lastName` is required., email: Email is invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter "" in the first name field                                                                                            2.Enter "" in the second name field                                                                                                   3. Enter "john4gmail.com" in third field                                                                                                 4. Enter "john12345" password
+5. Click on submit button                                                      </t>
+  </si>
+  <si>
+    <t>"","","john4gmail.com","john12345"</t>
   </si>
 </sst>
 </file>
@@ -630,7 +703,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,34 +755,37 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,11 +1121,11 @@
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
@@ -1200,52 +1276,52 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="22"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="22"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -1256,52 +1332,52 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -1312,72 +1388,72 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
@@ -1388,92 +1464,92 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
@@ -1484,65 +1560,80 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="D19:D26"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F28:F32"/>
@@ -1553,21 +1644,6 @@
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="F12:F17"/>
     <mergeCell ref="F19:F26"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A28:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1576,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="46" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="51" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1603,7 +1679,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>25</v>
@@ -1632,25 +1708,25 @@
         <v>68</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1661,25 +1737,25 @@
         <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1690,25 +1766,25 @@
         <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1719,25 +1795,25 @@
         <v>74</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1748,25 +1824,25 @@
         <v>75</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>82</v>
+        <v>114</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1777,25 +1853,25 @@
         <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>82</v>
+        <v>117</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -1806,25 +1882,25 @@
         <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>82</v>
+        <v>115</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1835,25 +1911,25 @@
         <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="93" x14ac:dyDescent="0.35">
@@ -1864,25 +1940,25 @@
         <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>82</v>
+        <v>120</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1893,66 +1969,193 @@
         <v>80</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
